--- a/StudentRecApi/src/main/resources/Template/StudentDetail.xlsx
+++ b/StudentRecApi/src/main/resources/Template/StudentDetail.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\ETL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\StudentRecordApi\StudentRecApi\src\main\resources\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A425E4-AA47-4AFC-8405-F224B3BB49C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Student Information" sheetId="1" r:id="rId1"/>
-    <sheet name="Employment" sheetId="4" r:id="rId2"/>
+    <sheet name="Tracer Study" sheetId="4" r:id="rId2"/>
     <sheet name="Course" sheetId="2" r:id="rId3"/>
     <sheet name="Recommand Course" sheetId="3" r:id="rId4"/>
   </sheets>
@@ -146,7 +147,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -468,29 +469,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="7" max="7" width="15" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" customWidth="1"/>
-    <col min="11" max="11" width="23.85546875" customWidth="1"/>
-    <col min="15" max="15" width="30.5703125" customWidth="1"/>
-    <col min="16" max="16" width="13.28515625" customWidth="1"/>
-    <col min="17" max="17" width="20.140625" customWidth="1"/>
-    <col min="18" max="18" width="19.42578125" customWidth="1"/>
-    <col min="19" max="19" width="21.28515625" customWidth="1"/>
-    <col min="20" max="20" width="23.85546875" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" customWidth="1"/>
+    <col min="10" max="10" width="15.44140625" customWidth="1"/>
+    <col min="11" max="11" width="23.88671875" customWidth="1"/>
+    <col min="15" max="15" width="30.5546875" customWidth="1"/>
+    <col min="16" max="16" width="13.33203125" customWidth="1"/>
+    <col min="17" max="17" width="20.109375" customWidth="1"/>
+    <col min="18" max="18" width="19.44140625" customWidth="1"/>
+    <col min="19" max="19" width="21.33203125" customWidth="1"/>
+    <col min="20" max="20" width="23.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -558,28 +559,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" customWidth="1"/>
-    <col min="7" max="7" width="22.5703125" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" customWidth="1"/>
+    <col min="7" max="7" width="22.5546875" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="27.85546875" customWidth="1"/>
+    <col min="10" max="10" width="27.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -617,23 +618,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -665,24 +666,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
